--- a/Оптимизация веб-приложений/Семантическое ядро/Семантическое ядро.xlsx
+++ b/Оптимизация веб-приложений/Семантическое ядро/Семантическое ядро.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="207">
   <si>
     <t xml:space="preserve">Ключевое слово</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">без минус-слов (“ключ”)</t>
   </si>
   <si>
+    <t xml:space="preserve">Кластеризация</t>
+  </si>
+  <si>
     <t xml:space="preserve">Пластиковые окна</t>
   </si>
   <si>
@@ -49,70 +52,232 @@
     <t xml:space="preserve">+как вставить пластиковое окно</t>
   </si>
   <si>
+    <t xml:space="preserve">регулировка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">купить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">установить/установка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москва/мск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дешевые/дешего/дёшево/дешёвые/дёшего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">камер/слои/слой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">балкон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ремонт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">самостоятельно/как</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жалюзи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шестигранник</t>
+  </si>
+  <si>
     <t xml:space="preserve">регулировка пластиковых окон самостоятельно</t>
   </si>
   <si>
     <t xml:space="preserve">+как открыть пластиковое окно</t>
   </si>
   <si>
+    <t xml:space="preserve">зимний пластиковые окна регулировка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">где купить пластиковые окна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">установка пластиковых окон +в доме</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пластиковые окна цена москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дешевые пластиковые окна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">двухкамерный стеклопакет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">балконные окна пластиковые</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ремонт +и регулировка пластиковых окон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жалюзи в стеклопакете</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шестигранник +для регулировки пластиковых окон</t>
+  </si>
+  <si>
     <t xml:space="preserve">регулировка пластиковых окон цена</t>
   </si>
   <si>
     <t xml:space="preserve">+как отрегулировать пластиковые окна</t>
   </si>
   <si>
-    <t xml:space="preserve">ремонт +и регулировка пластиковых окон</t>
+    <t xml:space="preserve">пластиковые окна закрываются регулировка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">установка пластиковых окон +своими руками</t>
+  </si>
+  <si>
+    <t xml:space="preserve">однокамерный стеклопакет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">остекление балконов пвх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пластиковые окна зимний режим регулировка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ремонт окон пвх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">купить жалюзи +на пластиковые окна</t>
   </si>
   <si>
     <t xml:space="preserve">+как сделать пластиковые окна</t>
   </si>
   <si>
+    <t xml:space="preserve">установка пластиковых окон недорого</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пятикамерный стеклопакет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пластиковые окна +на балкон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пластиковые окна регулировка зима лето самостоятельно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ремонт пластиковых окон +в москве</t>
+  </si>
+  <si>
     <t xml:space="preserve">регулировка пластиковых окон инструкция</t>
   </si>
   <si>
     <t xml:space="preserve">+не закрывается пластиковое окно</t>
   </si>
   <si>
+    <t xml:space="preserve">купить окна пвх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">регулировка пластиковых окон +на зиму</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ремонт пластиковых окон недорого</t>
+  </si>
+  <si>
     <t xml:space="preserve">регулировка пластиковых окон самостоятельно инструкция</t>
   </si>
   <si>
     <t xml:space="preserve">адреса пластиковых окон</t>
   </si>
   <si>
+    <t xml:space="preserve">пластиковые окна регулировка лето</t>
+  </si>
+  <si>
+    <t xml:space="preserve">купить окна пластиковые цены</t>
+  </si>
+  <si>
+    <t xml:space="preserve">регулировка пластиковых окон +на зиму инструкция</t>
+  </si>
+  <si>
     <t xml:space="preserve">регулировка пластиковых окон +своими руками</t>
   </si>
   <si>
     <t xml:space="preserve">анкерные пластины для окон пвх</t>
   </si>
   <si>
+    <t xml:space="preserve">регулировка евроокон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">купить пластиковое окно +в леруа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">регулировка пластиковых окон зима лето</t>
+  </si>
+  <si>
     <t xml:space="preserve">регулировка пластиковых окон видео</t>
   </si>
   <si>
     <t xml:space="preserve">антикошка +на пластиковые окна</t>
   </si>
   <si>
-    <t xml:space="preserve">пластиковые окна регулировка лето</t>
-  </si>
-  <si>
-    <t xml:space="preserve">балконные окна пластиковые</t>
-  </si>
-  <si>
-    <t xml:space="preserve">регулировка пластиковых окон зима лето</t>
+    <t xml:space="preserve">регулировка механизма пластиковых окон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">купить пластиковые окна +в москве</t>
+  </si>
+  <si>
+    <t xml:space="preserve">регулировка пластиковых окон зима лето инструкция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">как отрегулировать окно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">регулировка откидного механизма пластиковых окон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">купить пластиковые окна +в спб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">регулировка пластиковых окон зима лето самостоятельно инструкция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">как отрегулировать стеклопакет</t>
   </si>
   <si>
     <t xml:space="preserve">внутри пластиковых окнах</t>
   </si>
   <si>
+    <t xml:space="preserve">регулировка петель пластиковых окон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">купить пластиковые окна +на авито</t>
+  </si>
+  <si>
+    <t xml:space="preserve">регулировка пластиковых окон самостоятельно +на зиму</t>
+  </si>
+  <si>
+    <t xml:space="preserve">как регулировать окна</t>
+  </si>
+  <si>
     <t xml:space="preserve">ключ +для регулировки пластиковых окон</t>
   </si>
   <si>
     <t xml:space="preserve">где заказать пластиковые окна</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка пластиковых окон +на зиму</t>
-  </si>
-  <si>
-    <t xml:space="preserve">где купить пластиковые окна</t>
+    <t xml:space="preserve">купить пластиковые окна недорого</t>
+  </si>
+  <si>
+    <t xml:space="preserve">регулировка пластиковых окон самостоятельно +на зиму инструкция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">какие пластиковые окна лучше</t>
+  </si>
+  <si>
+    <t xml:space="preserve">регулировка пластиковых окон +в домашних условиях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">москитная сетка +на пластиковые окна купить</t>
   </si>
   <si>
     <t xml:space="preserve">регулировка пластиковых окон самостоятельно инструкция пошагово</t>
@@ -121,16 +286,31 @@
     <t xml:space="preserve">гост окна пвх</t>
   </si>
   <si>
+    <t xml:space="preserve">регулировка пластиковых окон +в москве</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пластиковые окна б +у купить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">регулировка пластиковых окон +по высоте самостоятельно</t>
+  </si>
+  <si>
     <t xml:space="preserve">регулировка пластиковых окон купить</t>
   </si>
   <si>
     <t xml:space="preserve">готовые пластиковые окна</t>
   </si>
   <si>
+    <t xml:space="preserve">регулировка пластиковых окон +в спб</t>
+  </si>
+  <si>
     <t xml:space="preserve">регулировка пластиковых окон самостоятельно видео</t>
   </si>
   <si>
-    <t xml:space="preserve">двухкамерный стеклопакет</t>
+    <t xml:space="preserve">регулировка пластиковых окон +и дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рулонные пластиковые окна купить</t>
   </si>
   <si>
     <t xml:space="preserve">ключ +для регулировки пластиковых окон купить</t>
@@ -139,10 +319,7 @@
     <t xml:space="preserve">день ночь +на пластиковые окна</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка пластиковых окон +и дверей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дешевые пластиковые окна</t>
+    <t xml:space="preserve">шторы +на пластиковые окна купить</t>
   </si>
   <si>
     <t xml:space="preserve">регулировка пластиковых окон +по высоте</t>
@@ -154,28 +331,25 @@
     <t xml:space="preserve">регулировка створки пластикового окна</t>
   </si>
   <si>
-    <t xml:space="preserve">жалюзи в стеклопакете</t>
-  </si>
-  <si>
     <t xml:space="preserve">регулировка пластиковых окон картинки</t>
   </si>
   <si>
     <t xml:space="preserve">завод пластиковых окон</t>
   </si>
   <si>
+    <t xml:space="preserve">регулировка пластиковых окон самостоятельно инструкция +с картинками</t>
+  </si>
+  <si>
     <t xml:space="preserve">регулировка пластиковых окон самостоятельно картинки</t>
   </si>
   <si>
-    <t xml:space="preserve">зимний пластиковые окна регулировка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">регулировка пластиковых окон самостоятельно инструкция +с картинками</t>
+    <t xml:space="preserve">регулировка пластиковых окон самостоятельно инструкция видео</t>
   </si>
   <si>
     <t xml:space="preserve">изготовление пластиковых окон</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка петель пластиковых окон</t>
+    <t xml:space="preserve">регулировка пластиковых окон видео инструкция</t>
   </si>
   <si>
     <t xml:space="preserve">инструкция пластиковых окон</t>
@@ -184,168 +358,75 @@
     <t xml:space="preserve">регулировка фурнитуры пластиковых окон</t>
   </si>
   <si>
-    <t xml:space="preserve">как отрегулировать окно</t>
+    <t xml:space="preserve">регулировка пластиковых окон самостоятельно окно плохо</t>
   </si>
   <si>
     <t xml:space="preserve">регулировка прижима пластиковых окон</t>
   </si>
   <si>
-    <t xml:space="preserve">как отрегулировать стеклопакет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">регулировка пластиковых окон самостоятельно +на зиму</t>
-  </si>
-  <si>
-    <t xml:space="preserve">как регулировать окна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">регулировка механизма пластиковых окон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">какие пластиковые окна лучше</t>
-  </si>
-  <si>
-    <t xml:space="preserve">регулировка пластиковых окон +в домашних условиях</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пластиковые окна регулировка зима лето самостоятельно</t>
-  </si>
-  <si>
     <t xml:space="preserve">компании пластиковых окон</t>
   </si>
   <si>
-    <t xml:space="preserve">шестигранник +для регулировки пластиковых окон</t>
+    <t xml:space="preserve">регулировка пластиковых окон лето инструкция</t>
   </si>
   <si>
     <t xml:space="preserve">крепление пластиковых окон</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка пластиковых окон +в москве</t>
-  </si>
-  <si>
-    <t xml:space="preserve">купить жалюзи +на пластиковые окна</t>
+    <t xml:space="preserve">регулировка пластиковых окон плохо закрываются</t>
+  </si>
+  <si>
+    <t xml:space="preserve">регулировка пластиковых окон рехау</t>
   </si>
   <si>
     <t xml:space="preserve">регулировка режимов пластиковых окон</t>
   </si>
   <si>
-    <t xml:space="preserve">купить окна пвх</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пластиковые окна закрываются регулировка</t>
-  </si>
-  <si>
     <t xml:space="preserve">купить ключ для пластиковых окон</t>
   </si>
   <si>
-    <t xml:space="preserve">купить окна пластиковые цены</t>
-  </si>
-  <si>
-    <t xml:space="preserve">регулировка откидного механизма пластиковых окон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">купить пластиковое окно +в леруа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">регулировка пластиковых окон +по высоте самостоятельно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">купить пластиковые окна +в москве</t>
-  </si>
-  <si>
-    <t xml:space="preserve">купить пластиковые окна +в спб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">регулировка пластиковых окон видео инструкция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">купить пластиковые окна +на авито</t>
-  </si>
-  <si>
     <t xml:space="preserve">регулировка ручки пластикового окна</t>
   </si>
   <si>
-    <t xml:space="preserve">купить пластиковые окна недорого</t>
-  </si>
-  <si>
-    <t xml:space="preserve">регулировка пластиковых окон самостоятельно инструкция видео</t>
-  </si>
-  <si>
     <t xml:space="preserve">леруа мерлен пластиковые окна</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка пластиковых окон лето инструкция</t>
-  </si>
-  <si>
     <t xml:space="preserve">лучшие пластиковые окна</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка пластиковых окон рехау</t>
-  </si>
-  <si>
     <t xml:space="preserve">магазин пластиковых окон</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка пластиковых окон зима лето инструкция</t>
-  </si>
-  <si>
     <t xml:space="preserve">мастер +по регулировке пластиковых окон</t>
   </si>
   <si>
     <t xml:space="preserve">механизм пластикового окна</t>
   </si>
   <si>
-    <t xml:space="preserve">пластиковые окна зимний режим регулировка</t>
-  </si>
-  <si>
     <t xml:space="preserve">монтаж пластиковых окон</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка пластиковых окон зима лето самостоятельно инструкция</t>
-  </si>
-  <si>
     <t xml:space="preserve">монтажник окон пвх</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка пластиковых окон +на зиму инструкция</t>
-  </si>
-  <si>
     <t xml:space="preserve">монтажник окон пвх вакансии</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка пластиковых окон +в спб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">москитная сетка +на пластиковые окна купить</t>
-  </si>
-  <si>
-    <t xml:space="preserve">регулировка пластиковых окон самостоятельно +на зиму инструкция</t>
+    <t xml:space="preserve">регулировка стеклопакетов</t>
   </si>
   <si>
     <t xml:space="preserve">новосибирском пластиковые окна</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка пластиковых окон самостоятельно окно плохо</t>
-  </si>
-  <si>
     <t xml:space="preserve">обслуживание окон пвх</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка пластиковых окон плохо закрываются</t>
-  </si>
-  <si>
-    <t xml:space="preserve">однокамерный стеклопакет</t>
-  </si>
-  <si>
     <t xml:space="preserve">пластика окон</t>
   </si>
   <si>
     <t xml:space="preserve">окн</t>
   </si>
   <si>
-    <t xml:space="preserve">ремонт окон пвх</t>
-  </si>
-  <si>
     <t xml:space="preserve">окна пвх</t>
   </si>
   <si>
@@ -373,9 +454,6 @@
     <t xml:space="preserve">окна пластиковые расчет</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка стеклопакетов</t>
-  </si>
-  <si>
     <t xml:space="preserve">окно</t>
   </si>
   <si>
@@ -391,9 +469,6 @@
     <t xml:space="preserve">ручка оконная для пвх окон</t>
   </si>
   <si>
-    <t xml:space="preserve">остекление балконов пвх</t>
-  </si>
-  <si>
     <t xml:space="preserve">отделка окон пвх</t>
   </si>
   <si>
@@ -412,9 +487,6 @@
     <t xml:space="preserve">теплое остекление окнами пвх</t>
   </si>
   <si>
-    <t xml:space="preserve">регулировка евроокон</t>
-  </si>
-  <si>
     <t xml:space="preserve">пластиковые наличники +на окна</t>
   </si>
   <si>
@@ -445,9 +517,6 @@
     <t xml:space="preserve">пластиковые окна +и двери</t>
   </si>
   <si>
-    <t xml:space="preserve">пластиковые окна +на балкон</t>
-  </si>
-  <si>
     <t xml:space="preserve">пластиковые окна +от производителя цены</t>
   </si>
   <si>
@@ -457,12 +526,6 @@
     <t xml:space="preserve">пластиковые окна улица</t>
   </si>
   <si>
-    <t xml:space="preserve">пластиковые окна б +у купить</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ремонт пластиковых окон недорого</t>
-  </si>
-  <si>
     <t xml:space="preserve">пластиковые окна город</t>
   </si>
   <si>
@@ -511,9 +574,6 @@
     <t xml:space="preserve">пластиковые окна рехау</t>
   </si>
   <si>
-    <t xml:space="preserve">ремонт пластиковых окон +в москве</t>
-  </si>
-  <si>
     <t xml:space="preserve">пластиковые окна снаружи</t>
   </si>
   <si>
@@ -529,9 +589,6 @@
     <t xml:space="preserve">подоконники +для пластиковых окон</t>
   </si>
   <si>
-    <t xml:space="preserve">пластиковые окна цена москва</t>
-  </si>
-  <si>
     <t xml:space="preserve">профиль +для пластиковых окон</t>
   </si>
   <si>
@@ -556,9 +613,6 @@
     <t xml:space="preserve">стандартные пластиковые окна</t>
   </si>
   <si>
-    <t xml:space="preserve">пятикамерный стеклопакет</t>
-  </si>
-  <si>
     <t xml:space="preserve">рама пластикового окна</t>
   </si>
   <si>
@@ -583,25 +637,10 @@
     <t xml:space="preserve">рейтинг пластиковых окон</t>
   </si>
   <si>
-    <t xml:space="preserve">рулонные пластиковые окна купить</t>
-  </si>
-  <si>
     <t xml:space="preserve">створка пластикового окна</t>
   </si>
   <si>
-    <t xml:space="preserve">установка пластиковых окон недорого</t>
-  </si>
-  <si>
     <t xml:space="preserve">уплотнитель +для пластиковых окон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">установка пластиковых окон +в доме</t>
-  </si>
-  <si>
-    <t xml:space="preserve">установка пластиковых окон +своими руками</t>
-  </si>
-  <si>
-    <t xml:space="preserve">шторы +на пластиковые окна купить</t>
   </si>
 </sst>
 </file>
@@ -676,13 +715,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -702,18 +749,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="66.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="49.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="1" width="38.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="38.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="0" width="38.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -732,2183 +778,4018 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C36" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="G39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C40" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C42" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C43" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C46" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C47" s="1" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C49" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C50" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C53" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C54" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C55" s="1" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C56" s="1" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C57" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="1" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C59" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C60" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C61" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C62" s="1" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C63" s="1" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C64" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C65" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C66" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C67" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C68" s="1" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>128</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C69" s="1" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C70" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C71" s="1" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C72" s="1" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C73" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C74" s="1" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C75" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C76" s="1" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C77" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C78" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C79" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C80" s="1" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C81" s="1" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C82" s="1" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C83" s="1" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C84" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C85" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C86" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C87" s="1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C88" s="1" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C89" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C90" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C91" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C92" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C93" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C94" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C95" s="1" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C96" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C97" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C98" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C99" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C100" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C101" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C102" s="1" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C103" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C104" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C105" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C106" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C107" s="1" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C108" s="1" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C109" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C110" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C111" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C112" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C113" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C114" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C115" s="1" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C116" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C117" s="1" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C118" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C119" s="1" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C120" s="1" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C121" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C122" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C123" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C124" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C125" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C126" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C127" s="1" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C128" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C129" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C130" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C131" s="1" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C132" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C133" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C134" s="1" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C135" s="1" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C136" s="1" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C137" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C138" s="1" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C139" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C140" s="1" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C141" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C142" s="1" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C143" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C144" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C145" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C146" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C147" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C148" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C149" s="1" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C150" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C151" s="1" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C152" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C153" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C154" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C155" s="1" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C156" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C157" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C158" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C159" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>146</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C160" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C161" s="1" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C162" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C163" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C164" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C165" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C166" s="1" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C167" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C168" s="1" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C169" s="1" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>180</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C170" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C171" s="1" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C172" s="1" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C173" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C174" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C175" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C176" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C177" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C178" s="1" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C179" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>192</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C180" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>189</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C181" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C182" s="1" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C183" s="1" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C184" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C185" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C186" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C187" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C188" s="1" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C189" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C190" s="1" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C191" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C192" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C193" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C194" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C195" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C196" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C197" s="1" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C198" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C199" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C200" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C201" s="1" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C202" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C203" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C204" s="1" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C205" s="1" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C206" s="1" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C207" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C208" s="1" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C209" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C210" s="1" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C211" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C212" s="1" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:R1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
